--- a/new_students_output.xlsx
+++ b/new_students_output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="164">
   <si>
     <t>ID</t>
   </si>
@@ -76,34 +76,37 @@
     <t>Group</t>
   </si>
   <si>
+    <t>Παναγιώτης</t>
+  </si>
+  <si>
+    <t>Σταύρος</t>
+  </si>
+  <si>
+    <t>Ανδρέας</t>
+  </si>
+  <si>
+    <t>Κωνσταντίνος</t>
+  </si>
+  <si>
+    <t>Γιώργος</t>
+  </si>
+  <si>
+    <t>Βασίλης</t>
+  </si>
+  <si>
+    <t>Δημήτρης</t>
+  </si>
+  <si>
+    <t>Μιχάλης</t>
+  </si>
+  <si>
     <t>Νικόλαος</t>
   </si>
   <si>
-    <t>Παναγιώτης</t>
-  </si>
-  <si>
-    <t>Δημήτρης</t>
-  </si>
-  <si>
-    <t>Βασίλης</t>
-  </si>
-  <si>
-    <t>Μιχάλης</t>
-  </si>
-  <si>
     <t>Αλέξανδρος</t>
   </si>
   <si>
-    <t>Σταύρος</t>
-  </si>
-  <si>
-    <t>Γιώργος</t>
-  </si>
-  <si>
-    <t>Κωνσταντίνος</t>
-  </si>
-  <si>
-    <t>Ανδρέας</t>
+    <t>Παπανδρέου</t>
   </si>
   <si>
     <t>Αδωνις Γεωργιάδης</t>
@@ -112,27 +115,24 @@
     <t>Τσίπρας</t>
   </si>
   <si>
+    <t>Γιαννόπουλος</t>
+  </si>
+  <si>
+    <t>Καραμανλής</t>
+  </si>
+  <si>
+    <t>Λιάπης</t>
+  </si>
+  <si>
+    <t>Μητσοτάκης</t>
+  </si>
+  <si>
     <t>Καρατζαφέρης</t>
   </si>
   <si>
-    <t>Παπανδρέου</t>
-  </si>
-  <si>
-    <t>Λιάπης</t>
-  </si>
-  <si>
-    <t>Καραμανλής</t>
-  </si>
-  <si>
-    <t>Γιαννόπουλος</t>
-  </si>
-  <si>
     <t>Παπαδόπουλος</t>
   </si>
   <si>
-    <t>Μητσοτάκης</t>
-  </si>
-  <si>
     <t>Κουμουτσάκος</t>
   </si>
   <si>
@@ -142,12 +142,12 @@
     <t>M</t>
   </si>
   <si>
+    <t>S2</t>
+  </si>
+  <si>
     <t>S3</t>
   </si>
   <si>
-    <t>S2</t>
-  </si>
-  <si>
     <t>S1</t>
   </si>
   <si>
@@ -163,178 +163,154 @@
     <t>OSC1</t>
   </si>
   <si>
+    <t>[0, 1, 1, 0.4]</t>
+  </si>
+  <si>
+    <t>[1, 0, 0, 0.28]</t>
+  </si>
+  <si>
+    <t>[1, 0, 0, 0.36]</t>
+  </si>
+  <si>
+    <t>[1, 0, 0, 0.14]</t>
+  </si>
+  <si>
+    <t>[0, 1, 0, 0.22]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0, 0.26]</t>
+  </si>
+  <si>
+    <t>[0, 1, 1, 0.2]</t>
+  </si>
+  <si>
+    <t>[0, 1, 0, 0.26]</t>
+  </si>
+  <si>
+    <t>[1, 1, 0, 0.31]</t>
+  </si>
+  <si>
+    <t>[1, 1, 0, 0.27]</t>
+  </si>
+  <si>
+    <t>[0, 1, 0, 0.3]</t>
+  </si>
+  <si>
+    <t>[0, 1, 1, 0.36]</t>
+  </si>
+  <si>
+    <t>[0, 2, 0, 0.33]</t>
+  </si>
+  <si>
+    <t>[1, 0, 0, 0.32]</t>
+  </si>
+  <si>
     <t>[0, 1, 0, 0.34]</t>
   </si>
   <si>
-    <t>[1, 0, 0, 0.22]</t>
-  </si>
-  <si>
-    <t>[1, 1, 1, 0.32]</t>
-  </si>
-  <si>
-    <t>[2, 0, 0, 0.24]</t>
-  </si>
-  <si>
-    <t>[1, 1, 1, 0.34]</t>
+    <t>[0, 1, 0, 0.28]</t>
+  </si>
+  <si>
+    <t>[2, 3, 0, 0.34]</t>
+  </si>
+  <si>
+    <t>[2, 1, 0, 0.29]</t>
+  </si>
+  <si>
+    <t>[3, 0, 1, 0.32]</t>
+  </si>
+  <si>
+    <t>[1, 3, 0, 0.32]</t>
+  </si>
+  <si>
+    <t>[1, 3, 1, 0.27]</t>
+  </si>
+  <si>
+    <t>[3, 0, 1, 0.31]</t>
+  </si>
+  <si>
+    <t>[0, 1, 0, 0.2]</t>
+  </si>
+  <si>
+    <t>[1, 0, 0, 0.38]</t>
+  </si>
+  <si>
+    <t>[2, 1, 2, 0.29]</t>
+  </si>
+  <si>
+    <t>[1, 0, 1, 0.24]</t>
+  </si>
+  <si>
+    <t>[0, 2, 0, 0.24]</t>
   </si>
   <si>
     <t>[0, 2, 0, 0.29]</t>
   </si>
   <si>
-    <t>[1, 0, 1, 0.3]</t>
-  </si>
-  <si>
-    <t>[1, 1, 0, 0.23]</t>
-  </si>
-  <si>
-    <t>[1, 2, 0, 0.26]</t>
-  </si>
-  <si>
-    <t>[1, 0, 0, 0.2]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0, 0.27]</t>
-  </si>
-  <si>
-    <t>[0, 1, 0, 0.3]</t>
+    <t>[0, 1, 1, 0.34]</t>
+  </si>
+  <si>
+    <t>[0, 1, 0, 0.36]</t>
+  </si>
+  <si>
+    <t>[0, 1, 0, 0.32]</t>
+  </si>
+  <si>
+    <t>[1, 0, 0, 0.42]</t>
+  </si>
+  <si>
+    <t>[1, 0, 0, 0.24]</t>
+  </si>
+  <si>
+    <t>[1, 0, 0, 0.26]</t>
+  </si>
+  <si>
+    <t>[1, 0, 0, 0.34]</t>
+  </si>
+  <si>
+    <t>[0, 1, 0, 0.38]</t>
   </si>
   <si>
     <t>[1, 1, 0, 0.24]</t>
   </si>
   <si>
-    <t>[0, 1, 0, 0.28]</t>
-  </si>
-  <si>
-    <t>[1, 1, 0, 0.33]</t>
-  </si>
-  <si>
-    <t>[0, 2, 1, 0.27]</t>
-  </si>
-  <si>
-    <t>[1, 1, 1, 0.29]</t>
-  </si>
-  <si>
-    <t>[0, 1, 0, 0.38]</t>
-  </si>
-  <si>
-    <t>[1, 1, 1, 0.33]</t>
-  </si>
-  <si>
-    <t>[0, 1, 1, 0.4]</t>
-  </si>
-  <si>
-    <t>[0, 1, 0, 0.2]</t>
-  </si>
-  <si>
-    <t>[2, 0, 0, 0.34]</t>
-  </si>
-  <si>
-    <t>[0, 1, 0, 0.36]</t>
-  </si>
-  <si>
-    <t>[1, 0, 0, 0.24]</t>
-  </si>
-  <si>
-    <t>[1, 0, 1, 0.2]</t>
-  </si>
-  <si>
-    <t>[0, 1, 0, 0.26]</t>
-  </si>
-  <si>
-    <t>[0, 1, 0, 0.24]</t>
-  </si>
-  <si>
-    <t>[1, 0, 0, 0.32]</t>
-  </si>
-  <si>
-    <t>[0, 1, 0, 0.32]</t>
-  </si>
-  <si>
-    <t>[1, 0, 0, 0.44]</t>
-  </si>
-  <si>
-    <t>[1, 1, 0, 0.29]</t>
-  </si>
-  <si>
-    <t>[0, 2, 0, 0.33]</t>
-  </si>
-  <si>
-    <t>[1, 1, 0, 0.25]</t>
-  </si>
-  <si>
-    <t>[1, 2, 0, 0.23]</t>
-  </si>
-  <si>
-    <t>[1, 0, 0, 0.28]</t>
-  </si>
-  <si>
-    <t>[0, 1, 1, 0.38]</t>
-  </si>
-  <si>
-    <t>[0, 1, 0, 0.44]</t>
-  </si>
-  <si>
-    <t>[0, 2, 1, 0.3]</t>
-  </si>
-  <si>
-    <t>[1, 0, 1, 0.24]</t>
-  </si>
-  <si>
-    <t>[1, 0, 0, 0.34]</t>
+    <t>[0, 1, 1, 0.32]</t>
+  </si>
+  <si>
+    <t>[1, 0, 1, 0.32]</t>
+  </si>
+  <si>
+    <t>[1, 0, 1, 0.4]</t>
+  </si>
+  <si>
+    <t>[1, 0, 0, 0.46]</t>
+  </si>
+  <si>
+    <t>[0, 1, 0, 0.46]</t>
   </si>
   <si>
     <t>[1, 0, 0, 0.3]</t>
   </si>
   <si>
-    <t>[1, 0, 0, 0.42]</t>
-  </si>
-  <si>
-    <t>[2, 1, 0, 0.29]</t>
-  </si>
-  <si>
-    <t>[1, 0, 0, 0.26]</t>
-  </si>
-  <si>
-    <t>[2, 0, 0, 0.33]</t>
-  </si>
-  <si>
-    <t>[1, 0, 0, 0.38]</t>
-  </si>
-  <si>
-    <t>[0, 1, 1, 0.2]</t>
-  </si>
-  <si>
-    <t>[0, 1, 1, 0.3]</t>
-  </si>
-  <si>
-    <t>[2, 0, 0, 0.26]</t>
-  </si>
-  <si>
-    <t>[1, 0, 1, 0.36]</t>
-  </si>
-  <si>
-    <t>[0, 1, 0, 0.22]</t>
-  </si>
-  <si>
     <t>{1}</t>
   </si>
   <si>
     <t>{2}</t>
   </si>
   <si>
-    <t>{3, 62}</t>
-  </si>
-  <si>
-    <t>{4, 86}</t>
+    <t>{3}</t>
+  </si>
+  <si>
+    <t>{4}</t>
   </si>
   <si>
     <t>{5}</t>
   </si>
   <si>
-    <t>{32, 6}</t>
-  </si>
-  <si>
-    <t>{93, 7}</t>
+    <t>{94, 10, 53, 6}</t>
+  </si>
+  <si>
+    <t>{7}</t>
   </si>
   <si>
     <t>{8}</t>
@@ -343,91 +319,94 @@
     <t>{9}</t>
   </si>
   <si>
-    <t>{10, 37}</t>
-  </si>
-  <si>
-    <t>{64, 11, 20}</t>
+    <t>{11}</t>
   </si>
   <si>
     <t>{12}</t>
   </si>
   <si>
-    <t>{73, 69, 13, 31}</t>
-  </si>
-  <si>
-    <t>{14}</t>
-  </si>
-  <si>
-    <t>{66, 15}</t>
+    <t>{49, 13}</t>
+  </si>
+  <si>
+    <t>{96, 14}</t>
+  </si>
+  <si>
+    <t>{15}</t>
   </si>
   <si>
     <t>{16}</t>
   </si>
   <si>
-    <t>{17, 46}</t>
+    <t>{17, 74}</t>
   </si>
   <si>
     <t>{18}</t>
   </si>
   <si>
-    <t>{19, 92}</t>
-  </si>
-  <si>
-    <t>{90, 21}</t>
+    <t>{19}</t>
+  </si>
+  <si>
+    <t>{20}</t>
+  </si>
+  <si>
+    <t>{21}</t>
   </si>
   <si>
     <t>{22}</t>
   </si>
   <si>
-    <t>{57, 23}</t>
-  </si>
-  <si>
-    <t>{24}</t>
-  </si>
-  <si>
-    <t>{25}</t>
-  </si>
-  <si>
-    <t>{26}</t>
-  </si>
-  <si>
-    <t>{75, 27}</t>
-  </si>
-  <si>
-    <t>{28}</t>
-  </si>
-  <si>
-    <t>{29}</t>
+    <t>{44, 50, 52, 23, 58}</t>
+  </si>
+  <si>
+    <t>{24, 42, 40}</t>
+  </si>
+  <si>
+    <t>{25, 86, 95}</t>
+  </si>
+  <si>
+    <t>{26, 76, 69, 98}</t>
+  </si>
+  <si>
+    <t>{27}</t>
+  </si>
+  <si>
+    <t>{82, 28, 84, 87}</t>
+  </si>
+  <si>
+    <t>{67, 92, 29}</t>
   </si>
   <si>
     <t>{30}</t>
   </si>
   <si>
+    <t>{31}</t>
+  </si>
+  <si>
+    <t>{32}</t>
+  </si>
+  <si>
     <t>{33}</t>
   </si>
   <si>
     <t>{34}</t>
   </si>
   <si>
-    <t>{35}</t>
+    <t>{83, 35, 60}</t>
   </si>
   <si>
     <t>{36}</t>
   </si>
   <si>
-    <t>{38}</t>
-  </si>
-  <si>
-    <t>{88, 39}</t>
-  </si>
-  <si>
-    <t>{40, 81}</t>
-  </si>
-  <si>
-    <t>{41, 47}</t>
-  </si>
-  <si>
-    <t>{80, 42, 44}</t>
+    <t>{91, 37}</t>
+  </si>
+  <si>
+    <t>{56, 38}</t>
+  </si>
+  <si>
+    <t>{39}</t>
+  </si>
+  <si>
+    <t>{41}</t>
   </si>
   <si>
     <t>{43}</t>
@@ -436,22 +415,16 @@
     <t>{45}</t>
   </si>
   <si>
+    <t>{46}</t>
+  </si>
+  <si>
+    <t>{47}</t>
+  </si>
+  <si>
     <t>{48}</t>
   </si>
   <si>
-    <t>{49}</t>
-  </si>
-  <si>
-    <t>{50}</t>
-  </si>
-  <si>
-    <t>{51, 60}</t>
-  </si>
-  <si>
-    <t>{52}</t>
-  </si>
-  <si>
-    <t>{53}</t>
+    <t>{51}</t>
   </si>
   <si>
     <t>{54}</t>
@@ -460,10 +433,7 @@
     <t>{55}</t>
   </si>
   <si>
-    <t>{56, 99, 95}</t>
-  </si>
-  <si>
-    <t>{58}</t>
+    <t>{57}</t>
   </si>
   <si>
     <t>{59}</t>
@@ -472,13 +442,19 @@
     <t>{61}</t>
   </si>
   <si>
-    <t>{76, 63}</t>
-  </si>
-  <si>
-    <t>{65}</t>
-  </si>
-  <si>
-    <t>{67}</t>
+    <t>{62}</t>
+  </si>
+  <si>
+    <t>{63}</t>
+  </si>
+  <si>
+    <t>{64}</t>
+  </si>
+  <si>
+    <t>{65, 90}</t>
+  </si>
+  <si>
+    <t>{66}</t>
   </si>
   <si>
     <t>{68}</t>
@@ -493,7 +469,10 @@
     <t>{72}</t>
   </si>
   <si>
-    <t>{74}</t>
+    <t>{73}</t>
+  </si>
+  <si>
+    <t>{75}</t>
   </si>
   <si>
     <t>{77}</t>
@@ -505,34 +484,28 @@
     <t>{79}</t>
   </si>
   <si>
-    <t>{82}</t>
-  </si>
-  <si>
-    <t>{83}</t>
-  </si>
-  <si>
-    <t>{84, 87}</t>
+    <t>{80}</t>
+  </si>
+  <si>
+    <t>{81}</t>
   </si>
   <si>
     <t>{85}</t>
   </si>
   <si>
+    <t>{88}</t>
+  </si>
+  <si>
     <t>{89}</t>
   </si>
   <si>
-    <t>{91}</t>
-  </si>
-  <si>
-    <t>{94}</t>
-  </si>
-  <si>
-    <t>{96}</t>
+    <t>{93}</t>
   </si>
   <si>
     <t>{97}</t>
   </si>
   <si>
-    <t>{98}</t>
+    <t>{99}</t>
   </si>
 </sst>
 </file>
@@ -966,7 +939,7 @@
         <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
         <v>30</v>
@@ -984,22 +957,25 @@
         <v>5</v>
       </c>
       <c r="J2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K2">
         <v>5</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N2">
-        <v>3.4</v>
+        <v>4</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
       </c>
       <c r="Q2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -1008,7 +984,7 @@
         <v>49</v>
       </c>
       <c r="T2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -1019,7 +995,7 @@
         <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>31</v>
@@ -1028,7 +1004,7 @@
         <v>41</v>
       </c>
       <c r="G3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H3" t="s">
         <v>47</v>
@@ -1037,19 +1013,19 @@
         <v>2</v>
       </c>
       <c r="J3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M3">
         <v>4</v>
       </c>
       <c r="N3">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="Q3">
         <v>1</v>
@@ -1061,7 +1037,7 @@
         <v>50</v>
       </c>
       <c r="T3" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -1069,10 +1045,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>32</v>
@@ -1080,35 +1056,29 @@
       <c r="E4" t="s">
         <v>41</v>
       </c>
-      <c r="F4">
-        <v>62</v>
-      </c>
       <c r="G4" t="s">
         <v>43</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L4">
         <v>2</v>
       </c>
       <c r="M4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N4">
-        <v>3.2</v>
-      </c>
-      <c r="O4">
-        <v>1</v>
+        <v>3.6</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -1120,7 +1090,7 @@
         <v>51</v>
       </c>
       <c r="T4" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -1128,13 +1098,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E5" t="s">
         <v>41</v>
@@ -1143,28 +1113,28 @@
         <v>44</v>
       </c>
       <c r="H5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M5">
         <v>1</v>
       </c>
       <c r="N5">
-        <v>2.6</v>
+        <v>1.4</v>
       </c>
       <c r="Q5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R5">
         <v>3</v>
@@ -1173,7 +1143,7 @@
         <v>52</v>
       </c>
       <c r="T5" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -1181,13 +1151,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E6" t="s">
         <v>40</v>
@@ -1199,13 +1169,13 @@
         <v>47</v>
       </c>
       <c r="I6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J6">
         <v>4</v>
       </c>
       <c r="K6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L6">
         <v>1</v>
@@ -1214,19 +1184,19 @@
         <v>3</v>
       </c>
       <c r="N6">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R6">
         <v>4</v>
       </c>
       <c r="S6" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="T6" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -1234,58 +1204,55 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E7" t="s">
         <v>41</v>
       </c>
       <c r="F7">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H7" t="s">
         <v>47</v>
       </c>
       <c r="I7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N7">
-        <v>4</v>
-      </c>
-      <c r="O7">
-        <v>1</v>
+        <v>3.4</v>
       </c>
       <c r="Q7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R7">
         <v>5</v>
       </c>
       <c r="S7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="T7" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -1293,52 +1260,52 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H8" t="s">
         <v>46</v>
       </c>
       <c r="I8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N8">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="Q8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R8">
         <v>6</v>
       </c>
       <c r="S8" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="T8" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1346,19 +1313,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G9" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H9" t="s">
         <v>46</v>
@@ -1367,25 +1334,25 @@
         <v>2</v>
       </c>
       <c r="J9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M9">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O9">
         <v>1</v>
       </c>
       <c r="Q9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R9">
         <v>7</v>
@@ -1394,7 +1361,7 @@
         <v>55</v>
       </c>
       <c r="T9" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1402,52 +1369,52 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H10" t="s">
         <v>48</v>
       </c>
       <c r="I10">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N10">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R10">
         <v>8</v>
       </c>
       <c r="S10" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="T10" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1455,52 +1422,52 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E11" t="s">
         <v>40</v>
       </c>
       <c r="G11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K11">
         <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M11">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N11">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="Q11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R11">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="S11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="T11" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1508,31 +1475,28 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D12" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E12" t="s">
-        <v>41</v>
-      </c>
-      <c r="F12">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="G12" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H12" t="s">
         <v>48</v>
       </c>
       <c r="I12">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J12">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1541,22 +1505,22 @@
         <v>3</v>
       </c>
       <c r="M12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N12">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
       <c r="R12">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="S12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T12" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1564,52 +1528,52 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
         <v>23</v>
       </c>
       <c r="D13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H13" t="s">
         <v>46</v>
       </c>
       <c r="I13">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J13">
         <v>1</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M13">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N13">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="Q13">
         <v>2</v>
       </c>
       <c r="R13">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="S13" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="T13" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1617,34 +1581,31 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D14" t="s">
         <v>35</v>
       </c>
       <c r="E14" t="s">
-        <v>40</v>
-      </c>
-      <c r="F14">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="G14" t="s">
         <v>42</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L14">
         <v>3</v>
@@ -1656,16 +1617,16 @@
         <v>2.8</v>
       </c>
       <c r="Q14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R14">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="S14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="T14" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1673,52 +1634,52 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E15" t="s">
         <v>40</v>
       </c>
       <c r="G15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H15" t="s">
         <v>46</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J15">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K15">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L15">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M15">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N15">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="Q15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R15">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S15" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="T15" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1729,49 +1690,49 @@
         <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E16" t="s">
         <v>40</v>
       </c>
       <c r="G16" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H16" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I16">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K16">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M16">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N16">
         <v>3</v>
       </c>
       <c r="Q16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R16">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="S16" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="T16" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1782,10 +1743,10 @@
         <v>27</v>
       </c>
       <c r="C17" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D17" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E17" t="s">
         <v>40</v>
@@ -1797,34 +1758,37 @@
         <v>46</v>
       </c>
       <c r="I17">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L17">
         <v>3</v>
       </c>
       <c r="M17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N17">
-        <v>2.8</v>
+        <v>3.6</v>
+      </c>
+      <c r="O17">
+        <v>1</v>
       </c>
       <c r="Q17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R17">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="S17" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="T17" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1835,49 +1799,49 @@
         <v>28</v>
       </c>
       <c r="C18" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E18" t="s">
         <v>40</v>
       </c>
       <c r="G18" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H18" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I18">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K18">
         <v>4</v>
       </c>
       <c r="L18">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M18">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N18">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="Q18">
         <v>2</v>
       </c>
       <c r="R18">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S18" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="T18" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1885,52 +1849,52 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C19" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D19" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="E19" t="s">
         <v>40</v>
       </c>
       <c r="G19" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H19" t="s">
         <v>48</v>
       </c>
       <c r="I19">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J19">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L19">
         <v>3</v>
       </c>
       <c r="M19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N19">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
       <c r="R19">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="S19" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="T19" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1938,58 +1902,52 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E20" t="s">
-        <v>40</v>
-      </c>
-      <c r="F20">
-        <v>92</v>
+        <v>41</v>
       </c>
       <c r="G20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I20">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J20">
         <v>2</v>
       </c>
       <c r="K20">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N20">
-        <v>3.4</v>
-      </c>
-      <c r="O20">
-        <v>1</v>
+        <v>2.8</v>
       </c>
       <c r="Q20">
         <v>3</v>
       </c>
       <c r="R20">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="S20" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="T20" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1997,52 +1955,49 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D21" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E21" t="s">
-        <v>40</v>
-      </c>
-      <c r="F21">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="G21" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H21" t="s">
         <v>47</v>
       </c>
       <c r="I21">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J21">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M21">
         <v>1</v>
       </c>
       <c r="N21">
-        <v>2</v>
+        <v>3.2</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
       <c r="R21">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="S21" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="T21" t="s">
         <v>110</v>
@@ -2053,55 +2008,52 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E22" t="s">
         <v>40</v>
       </c>
-      <c r="F22">
-        <v>90</v>
-      </c>
       <c r="G22" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H22" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J22">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K22">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L22">
         <v>5</v>
       </c>
       <c r="M22">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N22">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="Q22">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R22">
         <v>19</v>
       </c>
       <c r="S22" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="T22" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -2112,37 +2064,37 @@
         <v>27</v>
       </c>
       <c r="C23" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D23" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E23" t="s">
         <v>40</v>
       </c>
       <c r="G23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J23">
         <v>5</v>
       </c>
       <c r="K23">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L23">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M23">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N23">
-        <v>3.8</v>
+        <v>2.8</v>
       </c>
       <c r="Q23">
         <v>1</v>
@@ -2151,10 +2103,10 @@
         <v>20</v>
       </c>
       <c r="S23" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="T23" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -2162,16 +2114,19 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C24" t="s">
         <v>24</v>
       </c>
       <c r="D24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E24" t="s">
-        <v>40</v>
+        <v>41</v>
+      </c>
+      <c r="F24">
+        <v>50</v>
       </c>
       <c r="G24" t="s">
         <v>45</v>
@@ -2183,34 +2138,31 @@
         <v>2</v>
       </c>
       <c r="J24">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L24">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M24">
         <v>5</v>
       </c>
       <c r="N24">
-        <v>3.4</v>
-      </c>
-      <c r="O24">
-        <v>1</v>
+        <v>2.8</v>
       </c>
       <c r="Q24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R24">
         <v>21</v>
       </c>
       <c r="S24" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="T24" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -2218,31 +2170,34 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D25" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="E25" t="s">
+        <v>41</v>
+      </c>
+      <c r="F25">
         <v>40</v>
       </c>
       <c r="G25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I25">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J25">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K25">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>5</v>
@@ -2251,10 +2206,7 @@
         <v>3</v>
       </c>
       <c r="N25">
-        <v>4</v>
-      </c>
-      <c r="O25">
-        <v>1</v>
+        <v>3.2</v>
       </c>
       <c r="Q25">
         <v>2</v>
@@ -2263,10 +2215,10 @@
         <v>22</v>
       </c>
       <c r="S25" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="T25" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2274,52 +2226,52 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D26" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E26" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G26" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J26">
         <v>4</v>
       </c>
       <c r="K26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L26">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M26">
         <v>2</v>
       </c>
       <c r="N26">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="Q26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R26">
         <v>23</v>
       </c>
       <c r="S26" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="T26" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2327,52 +2279,55 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C27" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="E27" t="s">
-        <v>40</v>
+        <v>41</v>
+      </c>
+      <c r="F27">
+        <v>76</v>
       </c>
       <c r="G27" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H27" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K27">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L27">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q27">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R27">
         <v>24</v>
       </c>
       <c r="S27" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="T27" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2383,37 +2338,40 @@
         <v>27</v>
       </c>
       <c r="C28" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D28" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G28" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H28" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I28">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J28">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L28">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M28">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N28">
-        <v>3.2</v>
+        <v>3.6</v>
+      </c>
+      <c r="O28">
+        <v>1</v>
       </c>
       <c r="Q28">
         <v>2</v>
@@ -2422,10 +2380,10 @@
         <v>25</v>
       </c>
       <c r="S28" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="T28" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2433,17 +2391,20 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C29" t="s">
         <v>21</v>
       </c>
       <c r="D29" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E29" t="s">
         <v>40</v>
       </c>
+      <c r="F29">
+        <v>82</v>
+      </c>
       <c r="G29" t="s">
         <v>42</v>
       </c>
@@ -2451,34 +2412,34 @@
         <v>46</v>
       </c>
       <c r="I29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K29">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L29">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M29">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N29">
-        <v>3.6</v>
+        <v>2.4</v>
       </c>
       <c r="Q29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R29">
         <v>26</v>
       </c>
       <c r="S29" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="T29" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2486,52 +2447,58 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C30" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D30" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E30" t="s">
         <v>41</v>
       </c>
+      <c r="F30">
+        <v>67</v>
+      </c>
       <c r="G30" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H30" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J30">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N30">
-        <v>2.4</v>
+        <v>3.4</v>
+      </c>
+      <c r="O30">
+        <v>1</v>
       </c>
       <c r="Q30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R30">
         <v>27</v>
       </c>
       <c r="S30" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="T30" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2539,31 +2506,31 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C31" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D31" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G31" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H31" t="s">
         <v>46</v>
       </c>
       <c r="I31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J31">
         <v>2</v>
       </c>
       <c r="K31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L31">
         <v>1</v>
@@ -2573,9 +2540,6 @@
       </c>
       <c r="N31">
         <v>2</v>
-      </c>
-      <c r="O31">
-        <v>1</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -2584,10 +2548,10 @@
         <v>28</v>
       </c>
       <c r="S31" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="T31" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2595,55 +2559,52 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C32" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D32" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="E32" t="s">
-        <v>41</v>
-      </c>
-      <c r="F32">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="G32" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H32" t="s">
         <v>47</v>
       </c>
       <c r="I32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J32">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K32">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L32">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M32">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N32">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="Q32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R32">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="S32" t="s">
         <v>59</v>
       </c>
       <c r="T32" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2651,52 +2612,52 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C33" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D33" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="E33" t="s">
         <v>40</v>
       </c>
       <c r="G33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H33" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I33">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J33">
         <v>4</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L33">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N33">
         <v>2.8</v>
       </c>
       <c r="Q33">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R33">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="S33" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="T33" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2704,52 +2665,52 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C34" t="s">
         <v>26</v>
       </c>
       <c r="D34" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E34" t="s">
         <v>40</v>
       </c>
       <c r="G34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H34" t="s">
         <v>48</v>
       </c>
       <c r="I34">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L34">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M34">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N34">
-        <v>2.6</v>
+        <v>3.4</v>
       </c>
       <c r="Q34">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R34">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="S34" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="T34" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2757,52 +2718,52 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C35" t="s">
         <v>22</v>
       </c>
       <c r="D35" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="E35" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G35" t="s">
         <v>44</v>
       </c>
       <c r="H35" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I35">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J35">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K35">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L35">
         <v>3</v>
       </c>
       <c r="M35">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N35">
-        <v>2.4</v>
+        <v>3.8</v>
       </c>
       <c r="Q35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R35">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="S35" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="T35" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2810,19 +2771,22 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C36" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D36" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E36" t="s">
         <v>41</v>
       </c>
+      <c r="F36">
+        <v>60</v>
+      </c>
       <c r="G36" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H36" t="s">
         <v>48</v>
@@ -2831,31 +2795,31 @@
         <v>5</v>
       </c>
       <c r="J36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K36">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L36">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M36">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N36">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="Q36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R36">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="S36" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="T36" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2866,49 +2830,52 @@
         <v>20</v>
       </c>
       <c r="C37" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D37" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E37" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G37" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H37" t="s">
         <v>46</v>
       </c>
       <c r="I37">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J37">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K37">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N37">
-        <v>3.2</v>
+        <v>2.4</v>
+      </c>
+      <c r="O37">
+        <v>1</v>
       </c>
       <c r="Q37">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R37">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="S37" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="T37" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="38" spans="1:20">
@@ -2916,19 +2883,16 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C38" t="s">
         <v>26</v>
       </c>
       <c r="D38" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E38" t="s">
-        <v>41</v>
-      </c>
-      <c r="F38">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="G38" t="s">
         <v>44</v>
@@ -2940,31 +2904,31 @@
         <v>1</v>
       </c>
       <c r="J38">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K38">
         <v>5</v>
       </c>
       <c r="L38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M38">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N38">
         <v>2.8</v>
       </c>
       <c r="Q38">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R38">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="S38" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="T38" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
     </row>
     <row r="39" spans="1:20">
@@ -2972,52 +2936,52 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
+        <v>23</v>
+      </c>
+      <c r="C39" t="s">
         <v>28</v>
       </c>
-      <c r="C39" t="s">
-        <v>25</v>
-      </c>
       <c r="D39" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E39" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G39" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H39" t="s">
         <v>47</v>
       </c>
       <c r="I39">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J39">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K39">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L39">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M39">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N39">
-        <v>4.4</v>
+        <v>2.4</v>
       </c>
       <c r="Q39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R39">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S39" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="T39" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="40" spans="1:20">
@@ -3025,55 +2989,55 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C40" t="s">
         <v>26</v>
       </c>
       <c r="D40" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="E40" t="s">
-        <v>41</v>
-      </c>
-      <c r="F40">
-        <v>88</v>
+        <v>40</v>
       </c>
       <c r="G40" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H40" t="s">
         <v>47</v>
       </c>
       <c r="I40">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J40">
         <v>4</v>
       </c>
       <c r="K40">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L40">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M40">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N40">
-        <v>2.6</v>
+        <v>3.4</v>
+      </c>
+      <c r="O40">
+        <v>1</v>
       </c>
       <c r="Q40">
         <v>3</v>
       </c>
       <c r="R40">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="S40" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="T40" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="41" spans="1:20">
@@ -3081,28 +3045,25 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C41" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D41" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E41" t="s">
-        <v>40</v>
-      </c>
-      <c r="F41">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="G41" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H41" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I41">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J41">
         <v>4</v>
@@ -3111,25 +3072,25 @@
         <v>3</v>
       </c>
       <c r="L41">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M41">
         <v>2</v>
       </c>
       <c r="N41">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Q41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R41">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="S41" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="T41" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
     </row>
     <row r="42" spans="1:20">
@@ -3137,52 +3098,52 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C42" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D42" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E42" t="s">
         <v>40</v>
       </c>
       <c r="G42" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J42">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K42">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M42">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N42">
-        <v>2.2</v>
+        <v>3.6</v>
       </c>
       <c r="Q42">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R42">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="S42" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="T42" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="43" spans="1:20">
@@ -3190,55 +3151,55 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C43" t="s">
         <v>20</v>
       </c>
       <c r="D43" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E43" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F43">
-        <v>80</v>
+        <v>24</v>
       </c>
       <c r="G43" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I43">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J43">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K43">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L43">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M43">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N43">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="Q43">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R43">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="S43" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="T43" t="s">
-        <v>137</v>
+        <v>114</v>
       </c>
     </row>
     <row r="44" spans="1:20">
@@ -3246,52 +3207,52 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C44" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D44" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E44" t="s">
         <v>40</v>
       </c>
       <c r="G44" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I44">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J44">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K44">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L44">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M44">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N44">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="Q44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R44">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="S44" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T44" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="45" spans="1:20">
@@ -3302,52 +3263,49 @@
         <v>28</v>
       </c>
       <c r="C45" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D45" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E45" t="s">
         <v>40</v>
       </c>
-      <c r="F45">
-        <v>42</v>
-      </c>
       <c r="G45" t="s">
         <v>45</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J45">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K45">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L45">
         <v>4</v>
       </c>
       <c r="M45">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N45">
-        <v>2.4</v>
+        <v>4</v>
       </c>
       <c r="Q45">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R45">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="S45" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="T45" t="s">
-        <v>137</v>
+        <v>113</v>
       </c>
     </row>
     <row r="46" spans="1:20">
@@ -3355,52 +3313,52 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
+        <v>26</v>
+      </c>
+      <c r="C46" t="s">
         <v>25</v>
       </c>
-      <c r="C46" t="s">
-        <v>24</v>
-      </c>
       <c r="D46" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="E46" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G46" t="s">
         <v>43</v>
       </c>
       <c r="H46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I46">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J46">
         <v>3</v>
       </c>
       <c r="K46">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L46">
         <v>1</v>
       </c>
       <c r="M46">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N46">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="Q46">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R46">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="S46" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="T46" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="47" spans="1:20">
@@ -3408,34 +3366,31 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C47" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D47" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E47" t="s">
         <v>41</v>
       </c>
-      <c r="F47">
-        <v>17</v>
-      </c>
       <c r="G47" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H47" t="s">
         <v>46</v>
       </c>
       <c r="I47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J47">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K47">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L47">
         <v>5</v>
@@ -3444,19 +3399,19 @@
         <v>5</v>
       </c>
       <c r="N47">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="Q47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R47">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="S47" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="T47" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
     </row>
     <row r="48" spans="1:20">
@@ -3464,55 +3419,55 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C48" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D48" t="s">
         <v>38</v>
       </c>
       <c r="E48" t="s">
-        <v>41</v>
-      </c>
-      <c r="F48">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G48" t="s">
         <v>44</v>
       </c>
       <c r="H48" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I48">
         <v>2</v>
       </c>
       <c r="J48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K48">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M48">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N48">
-        <v>2.8</v>
+        <v>2</v>
+      </c>
+      <c r="O48">
+        <v>1</v>
       </c>
       <c r="Q48">
         <v>0</v>
       </c>
       <c r="R48">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="S48" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="T48" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="49" spans="1:20">
@@ -3523,7 +3478,7 @@
         <v>25</v>
       </c>
       <c r="C49" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D49" t="s">
         <v>38</v>
@@ -3532,43 +3487,40 @@
         <v>40</v>
       </c>
       <c r="G49" t="s">
+        <v>42</v>
+      </c>
+      <c r="H49" t="s">
+        <v>48</v>
+      </c>
+      <c r="I49">
+        <v>3</v>
+      </c>
+      <c r="J49">
+        <v>4</v>
+      </c>
+      <c r="K49">
+        <v>2</v>
+      </c>
+      <c r="L49">
+        <v>4</v>
+      </c>
+      <c r="M49">
+        <v>2</v>
+      </c>
+      <c r="N49">
+        <v>3</v>
+      </c>
+      <c r="Q49">
+        <v>2</v>
+      </c>
+      <c r="R49">
         <v>43</v>
       </c>
-      <c r="H49" t="s">
-        <v>47</v>
-      </c>
-      <c r="I49">
-        <v>5</v>
-      </c>
-      <c r="J49">
-        <v>2</v>
-      </c>
-      <c r="K49">
-        <v>4</v>
-      </c>
-      <c r="L49">
-        <v>5</v>
-      </c>
-      <c r="M49">
-        <v>3</v>
-      </c>
-      <c r="N49">
-        <v>3.8</v>
-      </c>
-      <c r="O49">
-        <v>1</v>
-      </c>
-      <c r="Q49">
-        <v>1</v>
-      </c>
-      <c r="R49">
-        <v>40</v>
-      </c>
       <c r="S49" t="s">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="T49" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="50" spans="1:20">
@@ -3576,52 +3528,55 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C50" t="s">
         <v>23</v>
       </c>
       <c r="D50" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E50" t="s">
         <v>40</v>
       </c>
+      <c r="F50">
+        <v>13</v>
+      </c>
       <c r="G50" t="s">
         <v>42</v>
       </c>
       <c r="H50" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I50">
         <v>5</v>
       </c>
       <c r="J50">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K50">
         <v>4</v>
       </c>
       <c r="L50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M50">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N50">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="Q50">
         <v>0</v>
       </c>
       <c r="R50">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="S50" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="T50" t="s">
-        <v>141</v>
+        <v>103</v>
       </c>
     </row>
     <row r="51" spans="1:20">
@@ -3629,52 +3584,55 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C51" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D51" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E51" t="s">
         <v>40</v>
       </c>
+      <c r="F51">
+        <v>58</v>
+      </c>
       <c r="G51" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H51" t="s">
         <v>48</v>
       </c>
       <c r="I51">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J51">
         <v>3</v>
       </c>
       <c r="K51">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L51">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M51">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N51">
-        <v>4.4</v>
+        <v>2.2</v>
       </c>
       <c r="Q51">
         <v>0</v>
       </c>
       <c r="R51">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="S51" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="T51" t="s">
-        <v>142</v>
+        <v>113</v>
       </c>
     </row>
     <row r="52" spans="1:20">
@@ -3682,19 +3640,19 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C52" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D52" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E52" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G52" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H52" t="s">
         <v>48</v>
@@ -3709,25 +3667,25 @@
         <v>1</v>
       </c>
       <c r="L52">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M52">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N52">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="Q52">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R52">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="S52" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="T52" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="53" spans="1:20">
@@ -3735,55 +3693,55 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C53" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D53" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E53" t="s">
         <v>41</v>
       </c>
+      <c r="F53">
+        <v>50</v>
+      </c>
       <c r="G53" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H53" t="s">
         <v>47</v>
       </c>
       <c r="I53">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J53">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K53">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L53">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M53">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N53">
-        <v>2.4</v>
-      </c>
-      <c r="O53">
-        <v>1</v>
+        <v>4.2</v>
       </c>
       <c r="Q53">
         <v>0</v>
       </c>
       <c r="R53">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="S53" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="T53" t="s">
-        <v>144</v>
+        <v>113</v>
       </c>
     </row>
     <row r="54" spans="1:20">
@@ -3791,52 +3749,55 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C54" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D54" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="E54" t="s">
         <v>41</v>
       </c>
+      <c r="F54">
+        <v>10</v>
+      </c>
       <c r="G54" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H54" t="s">
         <v>48</v>
       </c>
       <c r="I54">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K54">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L54">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M54">
         <v>1</v>
       </c>
       <c r="N54">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="Q54">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R54">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="S54" t="s">
-        <v>88</v>
+        <v>54</v>
       </c>
       <c r="T54" t="s">
-        <v>145</v>
+        <v>97</v>
       </c>
     </row>
     <row r="55" spans="1:20">
@@ -3844,52 +3805,52 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C55" t="s">
         <v>21</v>
       </c>
       <c r="D55" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E55" t="s">
         <v>41</v>
       </c>
       <c r="G55" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J55">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K55">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L55">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M55">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N55">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="Q55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R55">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S55" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="T55" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
     </row>
     <row r="56" spans="1:20">
@@ -3897,52 +3858,52 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
+        <v>26</v>
+      </c>
+      <c r="C56" t="s">
         <v>27</v>
       </c>
-      <c r="C56" t="s">
-        <v>25</v>
-      </c>
       <c r="D56" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="E56" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G56" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H56" t="s">
+        <v>48</v>
+      </c>
+      <c r="I56">
+        <v>1</v>
+      </c>
+      <c r="J56">
+        <v>2</v>
+      </c>
+      <c r="K56">
+        <v>2</v>
+      </c>
+      <c r="L56">
+        <v>3</v>
+      </c>
+      <c r="M56">
+        <v>5</v>
+      </c>
+      <c r="N56">
+        <v>2.6</v>
+      </c>
+      <c r="Q56">
+        <v>2</v>
+      </c>
+      <c r="R56">
         <v>46</v>
       </c>
-      <c r="I56">
-        <v>2</v>
-      </c>
-      <c r="J56">
-        <v>5</v>
-      </c>
-      <c r="K56">
-        <v>5</v>
-      </c>
-      <c r="L56">
-        <v>4</v>
-      </c>
-      <c r="M56">
-        <v>5</v>
-      </c>
-      <c r="N56">
-        <v>4.2</v>
-      </c>
-      <c r="Q56">
-        <v>3</v>
-      </c>
-      <c r="R56">
-        <v>47</v>
-      </c>
       <c r="S56" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="T56" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
     </row>
     <row r="57" spans="1:20">
@@ -3950,52 +3911,55 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C57" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D57" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E57" t="s">
         <v>40</v>
       </c>
+      <c r="F57">
+        <v>38</v>
+      </c>
       <c r="G57" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J57">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K57">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L57">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M57">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N57">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="Q57">
         <v>1</v>
       </c>
       <c r="R57">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="S57" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="T57" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
     </row>
     <row r="58" spans="1:20">
@@ -4003,55 +3967,52 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C58" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D58" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E58" t="s">
-        <v>41</v>
-      </c>
-      <c r="F58">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="G58" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H58" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I58">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J58">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K58">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L58">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M58">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N58">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Q58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R58">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="S58" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="T58" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
     </row>
     <row r="59" spans="1:20">
@@ -4059,52 +4020,55 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C59" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D59" t="s">
         <v>34</v>
       </c>
       <c r="E59" t="s">
-        <v>41</v>
+        <v>40</v>
+      </c>
+      <c r="F59">
+        <v>44</v>
       </c>
       <c r="G59" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H59" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I59">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J59">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K59">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L59">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M59">
         <v>2</v>
       </c>
       <c r="N59">
-        <v>2.6</v>
+        <v>3.6</v>
       </c>
       <c r="Q59">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R59">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="S59" t="s">
-        <v>92</v>
+        <v>65</v>
       </c>
       <c r="T59" t="s">
-        <v>149</v>
+        <v>113</v>
       </c>
     </row>
     <row r="60" spans="1:20">
@@ -4112,52 +4076,52 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
+        <v>21</v>
+      </c>
+      <c r="C60" t="s">
         <v>20</v>
       </c>
-      <c r="C60" t="s">
-        <v>28</v>
-      </c>
       <c r="D60" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E60" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G60" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H60" t="s">
         <v>48</v>
       </c>
       <c r="I60">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J60">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K60">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L60">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M60">
         <v>4</v>
       </c>
       <c r="N60">
-        <v>2.6</v>
+        <v>3.4</v>
       </c>
       <c r="Q60">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R60">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="S60" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="T60" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
     </row>
     <row r="61" spans="1:20">
@@ -4165,25 +4129,25 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
+        <v>27</v>
+      </c>
+      <c r="C61" t="s">
         <v>29</v>
       </c>
-      <c r="C61" t="s">
-        <v>26</v>
-      </c>
       <c r="D61" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E61" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F61">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="G61" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H61" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I61">
         <v>1</v>
@@ -4192,31 +4156,31 @@
         <v>3</v>
       </c>
       <c r="K61">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L61">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M61">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N61">
-        <v>3.4</v>
+        <v>1.4</v>
       </c>
       <c r="O61">
         <v>1</v>
       </c>
       <c r="Q61">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R61">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="S61" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="T61" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
     </row>
     <row r="62" spans="1:20">
@@ -4224,52 +4188,52 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C62" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D62" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E62" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G62" t="s">
         <v>42</v>
       </c>
       <c r="H62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I62">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J62">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K62">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L62">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M62">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N62">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="Q62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R62">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="S62" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="T62" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
     </row>
     <row r="63" spans="1:20">
@@ -4277,52 +4241,52 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C63" t="s">
         <v>21</v>
       </c>
       <c r="D63" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="E63" t="s">
         <v>40</v>
       </c>
       <c r="G63" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63">
         <v>3</v>
       </c>
       <c r="J63">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K63">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M63">
         <v>5</v>
       </c>
       <c r="N63">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="Q63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R63">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="S63" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="T63" t="s">
-        <v>102</v>
+        <v>142</v>
       </c>
     </row>
     <row r="64" spans="1:20">
@@ -4330,52 +4294,52 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C64" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D64" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E64" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G64" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H64" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I64">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J64">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K64">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L64">
         <v>5</v>
       </c>
       <c r="M64">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N64">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="Q64">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R64">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="S64" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="T64" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
     </row>
     <row r="65" spans="1:20">
@@ -4383,13 +4347,13 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C65" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D65" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E65" t="s">
         <v>40</v>
@@ -4401,34 +4365,34 @@
         <v>47</v>
       </c>
       <c r="I65">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J65">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K65">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L65">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N65">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="Q65">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R65">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="S65" t="s">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="T65" t="s">
-        <v>110</v>
+        <v>144</v>
       </c>
     </row>
     <row r="66" spans="1:20">
@@ -4436,40 +4400,43 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C66" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D66" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E66" t="s">
         <v>41</v>
       </c>
+      <c r="F66">
+        <v>90</v>
+      </c>
       <c r="G66" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I66">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J66">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K66">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L66">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M66">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N66">
-        <v>3.8</v>
+        <v>1.6</v>
       </c>
       <c r="Q66">
         <v>0</v>
@@ -4478,10 +4445,10 @@
         <v>53</v>
       </c>
       <c r="S66" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="T66" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="67" spans="1:20">
@@ -4492,52 +4459,52 @@
         <v>21</v>
       </c>
       <c r="C67" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D67" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E67" t="s">
-        <v>41</v>
-      </c>
-      <c r="F67">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="G67" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H67" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I67">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J67">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K67">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L67">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M67">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N67">
-        <v>1.8</v>
+        <v>3.2</v>
+      </c>
+      <c r="O67">
+        <v>1</v>
       </c>
       <c r="Q67">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R67">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="S67" t="s">
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="T67" t="s">
-        <v>114</v>
+        <v>146</v>
       </c>
     </row>
     <row r="68" spans="1:20">
@@ -4545,52 +4512,52 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C68" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D68" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="E68" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G68" t="s">
         <v>45</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I68">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J68">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K68">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L68">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M68">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N68">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="Q68">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R68">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="S68" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="T68" t="s">
-        <v>154</v>
+        <v>119</v>
       </c>
     </row>
     <row r="69" spans="1:20">
@@ -4598,13 +4565,13 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C69" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D69" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E69" t="s">
         <v>40</v>
@@ -4613,37 +4580,37 @@
         <v>42</v>
       </c>
       <c r="H69" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I69">
         <v>5</v>
       </c>
       <c r="J69">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K69">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L69">
         <v>3</v>
       </c>
       <c r="M69">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N69">
         <v>3.4</v>
       </c>
       <c r="Q69">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R69">
         <v>55</v>
       </c>
       <c r="S69" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="T69" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
     </row>
     <row r="70" spans="1:20">
@@ -4651,52 +4618,55 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C70" t="s">
         <v>23</v>
       </c>
       <c r="D70" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E70" t="s">
         <v>40</v>
       </c>
+      <c r="F70">
+        <v>76</v>
+      </c>
       <c r="G70" t="s">
         <v>43</v>
       </c>
       <c r="H70" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I70">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J70">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K70">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L70">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M70">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N70">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="Q70">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R70">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="S70" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="T70" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="71" spans="1:20">
@@ -4704,52 +4674,52 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C71" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D71" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E71" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G71" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H71" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I71">
         <v>3</v>
       </c>
       <c r="J71">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K71">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L71">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M71">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N71">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="Q71">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R71">
         <v>56</v>
       </c>
       <c r="S71" t="s">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="T71" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
     </row>
     <row r="72" spans="1:20">
@@ -4757,55 +4727,55 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C72" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D72" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E72" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G72" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I72">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J72">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K72">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L72">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M72">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N72">
-        <v>2</v>
+        <v>3.2</v>
       </c>
       <c r="O72">
         <v>1</v>
       </c>
       <c r="Q72">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R72">
         <v>57</v>
       </c>
       <c r="S72" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="T72" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
     </row>
     <row r="73" spans="1:20">
@@ -4813,52 +4783,52 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C73" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D73" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E73" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G73" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H73" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I73">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J73">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K73">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L73">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M73">
         <v>5</v>
       </c>
       <c r="N73">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="Q73">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R73">
         <v>58</v>
       </c>
       <c r="S73" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="T73" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
     </row>
     <row r="74" spans="1:20">
@@ -4869,7 +4839,7 @@
         <v>23</v>
       </c>
       <c r="C74" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D74" t="s">
         <v>31</v>
@@ -4877,44 +4847,41 @@
       <c r="E74" t="s">
         <v>41</v>
       </c>
-      <c r="F74">
-        <v>69</v>
-      </c>
       <c r="G74" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H74" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I74">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J74">
         <v>1</v>
       </c>
       <c r="K74">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L74">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M74">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N74">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="Q74">
         <v>1</v>
       </c>
       <c r="R74">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="S74" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="T74" t="s">
-        <v>112</v>
+        <v>151</v>
       </c>
     </row>
     <row r="75" spans="1:20">
@@ -4922,19 +4889,22 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C75" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D75" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E75" t="s">
         <v>40</v>
       </c>
+      <c r="F75">
+        <v>17</v>
+      </c>
       <c r="G75" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H75" t="s">
         <v>47</v>
@@ -4943,31 +4913,31 @@
         <v>4</v>
       </c>
       <c r="J75">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K75">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L75">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M75">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N75">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="Q75">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R75">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="S75" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T75" t="s">
-        <v>159</v>
+        <v>107</v>
       </c>
     </row>
     <row r="76" spans="1:20">
@@ -4975,19 +4945,16 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C76" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D76" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E76" t="s">
-        <v>41</v>
-      </c>
-      <c r="F76">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="G76" t="s">
         <v>43</v>
@@ -4996,34 +4963,34 @@
         <v>48</v>
       </c>
       <c r="I76">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J76">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K76">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L76">
         <v>5</v>
       </c>
       <c r="M76">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N76">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="Q76">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R76">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="S76" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="T76" t="s">
-        <v>125</v>
+        <v>152</v>
       </c>
     </row>
     <row r="77" spans="1:20">
@@ -5034,52 +5001,49 @@
         <v>25</v>
       </c>
       <c r="C77" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D77" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E77" t="s">
-        <v>41</v>
-      </c>
-      <c r="F77">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="G77" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H77" t="s">
         <v>46</v>
       </c>
       <c r="I77">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J77">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K77">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L77">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M77">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N77">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="Q77">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R77">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="S77" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="T77" t="s">
-        <v>152</v>
+        <v>116</v>
       </c>
     </row>
     <row r="78" spans="1:20">
@@ -5087,52 +5051,55 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C78" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D78" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E78" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G78" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I78">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J78">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K78">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L78">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M78">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N78">
-        <v>3.6</v>
+        <v>4</v>
+      </c>
+      <c r="O78">
+        <v>1</v>
       </c>
       <c r="Q78">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R78">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="S78" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="T78" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="79" spans="1:20">
@@ -5140,13 +5107,13 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C79" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D79" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E79" t="s">
         <v>40</v>
@@ -5155,37 +5122,37 @@
         <v>45</v>
       </c>
       <c r="H79" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I79">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J79">
         <v>5</v>
       </c>
       <c r="K79">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L79">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M79">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N79">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="Q79">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R79">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S79" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T79" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="80" spans="1:20">
@@ -5193,52 +5160,52 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C80" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D80" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E80" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G80" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H80" t="s">
         <v>48</v>
       </c>
       <c r="I80">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J80">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K80">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L80">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M80">
         <v>3</v>
       </c>
       <c r="N80">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="Q80">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R80">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="S80" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="T80" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="81" spans="1:20">
@@ -5246,19 +5213,19 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C81" t="s">
         <v>23</v>
       </c>
       <c r="D81" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E81" t="s">
         <v>40</v>
       </c>
       <c r="G81" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H81" t="s">
         <v>46</v>
@@ -5270,28 +5237,28 @@
         <v>1</v>
       </c>
       <c r="K81">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L81">
         <v>2</v>
       </c>
       <c r="M81">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N81">
-        <v>1.6</v>
+        <v>3</v>
       </c>
       <c r="Q81">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R81">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="S81" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="T81" t="s">
-        <v>137</v>
+        <v>156</v>
       </c>
     </row>
     <row r="82" spans="1:20">
@@ -5302,49 +5269,49 @@
         <v>25</v>
       </c>
       <c r="C82" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D82" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="E82" t="s">
         <v>40</v>
       </c>
       <c r="G82" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H82" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I82">
         <v>5</v>
       </c>
       <c r="J82">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K82">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L82">
         <v>4</v>
       </c>
       <c r="M82">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N82">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="Q82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R82">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="S82" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="T82" t="s">
-        <v>135</v>
+        <v>157</v>
       </c>
     </row>
     <row r="83" spans="1:20">
@@ -5352,19 +5319,22 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
       </c>
       <c r="D83" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E83" t="s">
         <v>41</v>
       </c>
+      <c r="F83">
+        <v>84</v>
+      </c>
       <c r="G83" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H83" t="s">
         <v>48</v>
@@ -5373,31 +5343,31 @@
         <v>5</v>
       </c>
       <c r="J83">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K83">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L83">
         <v>2</v>
       </c>
       <c r="M83">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N83">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="Q83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R83">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="S83" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="T83" t="s">
-        <v>163</v>
+        <v>118</v>
       </c>
     </row>
     <row r="84" spans="1:20">
@@ -5408,10 +5378,10 @@
         <v>20</v>
       </c>
       <c r="C84" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D84" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="E84" t="s">
         <v>40</v>
@@ -5420,40 +5390,40 @@
         <v>44</v>
       </c>
       <c r="H84" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I84">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J84">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K84">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L84">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M84">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N84">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="O84">
         <v>1</v>
       </c>
       <c r="Q84">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R84">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="S84" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="T84" t="s">
-        <v>164</v>
+        <v>125</v>
       </c>
     </row>
     <row r="85" spans="1:20">
@@ -5461,52 +5431,52 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C85" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D85" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E85" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G85" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H85" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I85">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J85">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K85">
         <v>3</v>
       </c>
       <c r="L85">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M85">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N85">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="Q85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R85">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="S85" t="s">
-        <v>97</v>
+        <v>69</v>
       </c>
       <c r="T85" t="s">
-        <v>165</v>
+        <v>118</v>
       </c>
     </row>
     <row r="86" spans="1:20">
@@ -5514,52 +5484,52 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C86" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D86" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E86" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G86" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H86" t="s">
         <v>48</v>
       </c>
       <c r="I86">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J86">
         <v>1</v>
       </c>
       <c r="K86">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L86">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M86">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N86">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="Q86">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R86">
         <v>66</v>
       </c>
       <c r="S86" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="T86" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
     </row>
     <row r="87" spans="1:20">
@@ -5567,55 +5537,58 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C87" t="s">
         <v>26</v>
       </c>
       <c r="D87" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E87" t="s">
         <v>41</v>
       </c>
       <c r="F87">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="G87" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H87" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I87">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J87">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K87">
         <v>2</v>
       </c>
       <c r="L87">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M87">
         <v>4</v>
       </c>
       <c r="N87">
-        <v>2.2</v>
+        <v>3.2</v>
+      </c>
+      <c r="O87">
+        <v>1</v>
       </c>
       <c r="Q87">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R87">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="S87" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="T87" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
     </row>
     <row r="88" spans="1:20">
@@ -5623,55 +5596,58 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C88" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D88" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E88" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F88">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G88" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H88" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I88">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J88">
         <v>2</v>
       </c>
       <c r="K88">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L88">
         <v>1</v>
       </c>
       <c r="M88">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N88">
-        <v>2.2</v>
+        <v>2</v>
+      </c>
+      <c r="O88">
+        <v>1</v>
       </c>
       <c r="Q88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R88">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="S88" t="s">
-        <v>97</v>
+        <v>69</v>
       </c>
       <c r="T88" t="s">
-        <v>165</v>
+        <v>118</v>
       </c>
     </row>
     <row r="89" spans="1:20">
@@ -5679,52 +5655,52 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
+        <v>20</v>
+      </c>
+      <c r="C89" t="s">
         <v>24</v>
       </c>
-      <c r="C89" t="s">
-        <v>22</v>
-      </c>
       <c r="D89" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E89" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G89" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H89" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I89">
         <v>5</v>
       </c>
       <c r="J89">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K89">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L89">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M89">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N89">
-        <v>3.2</v>
+        <v>4.6</v>
       </c>
       <c r="Q89">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R89">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="S89" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="T89" t="s">
-        <v>134</v>
+        <v>159</v>
       </c>
     </row>
     <row r="90" spans="1:20">
@@ -5732,28 +5708,28 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C90" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D90" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E90" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G90" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H90" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I90">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J90">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K90">
         <v>4</v>
@@ -5762,22 +5738,22 @@
         <v>5</v>
       </c>
       <c r="M90">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N90">
-        <v>3.2</v>
+        <v>4.6</v>
       </c>
       <c r="Q90">
         <v>2</v>
       </c>
       <c r="R90">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="S90" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="T90" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="91" spans="1:20">
@@ -5785,55 +5761,52 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C91" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D91" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E91" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G91" t="s">
         <v>45</v>
       </c>
       <c r="H91" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I91">
         <v>1</v>
       </c>
       <c r="J91">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K91">
         <v>4</v>
       </c>
       <c r="L91">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M91">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N91">
-        <v>2.2</v>
-      </c>
-      <c r="O91">
-        <v>1</v>
+        <v>3.2</v>
       </c>
       <c r="Q91">
         <v>0</v>
       </c>
       <c r="R91">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="S91" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="T91" t="s">
-        <v>119</v>
+        <v>145</v>
       </c>
     </row>
     <row r="92" spans="1:20">
@@ -5844,49 +5817,52 @@
         <v>29</v>
       </c>
       <c r="C92" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D92" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E92" t="s">
         <v>40</v>
       </c>
+      <c r="F92">
+        <v>37</v>
+      </c>
       <c r="G92" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H92" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I92">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J92">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K92">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L92">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M92">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N92">
-        <v>3.4</v>
+        <v>2</v>
       </c>
       <c r="Q92">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R92">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="S92" t="s">
-        <v>49</v>
+        <v>75</v>
       </c>
       <c r="T92" t="s">
-        <v>168</v>
+        <v>127</v>
       </c>
     </row>
     <row r="93" spans="1:20">
@@ -5894,52 +5870,55 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C93" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D93" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E93" t="s">
-        <v>40</v>
+        <v>41</v>
+      </c>
+      <c r="F93">
+        <v>29</v>
       </c>
       <c r="G93" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H93" t="s">
         <v>47</v>
       </c>
       <c r="I93">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J93">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K93">
         <v>1</v>
       </c>
       <c r="L93">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M93">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N93">
-        <v>2</v>
+        <v>4.2</v>
       </c>
       <c r="Q93">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R93">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="S93" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="T93" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="94" spans="1:20">
@@ -5947,55 +5926,52 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C94" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D94" t="s">
         <v>36</v>
       </c>
       <c r="E94" t="s">
-        <v>40</v>
-      </c>
-      <c r="F94">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="G94" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H94" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I94">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J94">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K94">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L94">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M94">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N94">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q94">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R94">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="S94" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="T94" t="s">
-        <v>106</v>
+        <v>161</v>
       </c>
     </row>
     <row r="95" spans="1:20">
@@ -6003,55 +5979,55 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C95" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D95" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E95" t="s">
-        <v>41</v>
+        <v>40</v>
+      </c>
+      <c r="F95">
+        <v>6</v>
       </c>
       <c r="G95" t="s">
         <v>45</v>
       </c>
       <c r="H95" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I95">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J95">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K95">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L95">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M95">
         <v>3</v>
       </c>
       <c r="N95">
-        <v>3.6</v>
-      </c>
-      <c r="O95">
-        <v>1</v>
+        <v>2.8</v>
       </c>
       <c r="Q95">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R95">
-        <v>69</v>
+        <v>5</v>
       </c>
       <c r="S95" t="s">
-        <v>98</v>
+        <v>54</v>
       </c>
       <c r="T95" t="s">
-        <v>169</v>
+        <v>97</v>
       </c>
     </row>
     <row r="96" spans="1:20">
@@ -6059,55 +6035,55 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C96" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D96" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E96" t="s">
         <v>41</v>
       </c>
       <c r="F96">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="G96" t="s">
         <v>42</v>
       </c>
       <c r="H96" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I96">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J96">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K96">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L96">
         <v>3</v>
       </c>
       <c r="M96">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N96">
-        <v>2.2</v>
+        <v>3.4</v>
       </c>
       <c r="Q96">
         <v>1</v>
       </c>
       <c r="R96">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="S96" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="T96" t="s">
-        <v>148</v>
+        <v>115</v>
       </c>
     </row>
     <row r="97" spans="1:20">
@@ -6115,52 +6091,55 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C97" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D97" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E97" t="s">
-        <v>40</v>
+        <v>41</v>
+      </c>
+      <c r="F97">
+        <v>14</v>
       </c>
       <c r="G97" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H97" t="s">
         <v>48</v>
       </c>
       <c r="I97">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J97">
         <v>3</v>
       </c>
       <c r="K97">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L97">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M97">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N97">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="Q97">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R97">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="S97" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="T97" t="s">
-        <v>170</v>
+        <v>104</v>
       </c>
     </row>
     <row r="98" spans="1:20">
@@ -6168,19 +6147,19 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C98" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D98" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E98" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G98" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H98" t="s">
         <v>48</v>
@@ -6192,28 +6171,28 @@
         <v>4</v>
       </c>
       <c r="K98">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L98">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M98">
         <v>1</v>
       </c>
       <c r="N98">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="Q98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R98">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="S98" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="T98" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
     </row>
     <row r="99" spans="1:20">
@@ -6221,52 +6200,55 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
+        <v>26</v>
+      </c>
+      <c r="C99" t="s">
         <v>24</v>
       </c>
-      <c r="C99" t="s">
-        <v>20</v>
-      </c>
       <c r="D99" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E99" t="s">
         <v>40</v>
       </c>
+      <c r="F99">
+        <v>69</v>
+      </c>
       <c r="G99" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H99" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I99">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J99">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K99">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L99">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M99">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N99">
-        <v>2.2</v>
+        <v>3.4</v>
       </c>
       <c r="Q99">
         <v>3</v>
       </c>
       <c r="R99">
-        <v>72</v>
+        <v>24</v>
       </c>
       <c r="S99" t="s">
-        <v>99</v>
+        <v>68</v>
       </c>
       <c r="T99" t="s">
-        <v>172</v>
+        <v>116</v>
       </c>
     </row>
     <row r="100" spans="1:20">
@@ -6274,55 +6256,52 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C100" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D100" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E100" t="s">
-        <v>41</v>
-      </c>
-      <c r="F100">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="G100" t="s">
         <v>45</v>
       </c>
       <c r="H100" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I100">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J100">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K100">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L100">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M100">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N100">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="Q100">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R100">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="S100" t="s">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="T100" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
